--- a/snail-racing-puzzle-solutions.xlsx
+++ b/snail-racing-puzzle-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasmead/Documents/GitHub/sins-puzzle-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FFD61C-217E-B744-84DA-EAACBA0D20F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E2C4D3-F68D-CB45-B37D-6E1D69252F6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{D5F40304-4F7F-1F42-ADB1-A0DBF01C3432}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F0F3F5-8448-814D-A7F4-A9DDE817214C}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1"/>
@@ -951,7 +951,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="8"/>
@@ -965,7 +965,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="4"/>

--- a/snail-racing-puzzle-solutions.xlsx
+++ b/snail-racing-puzzle-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasmead/Documents/GitHub/sins-puzzle-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E2C4D3-F68D-CB45-B37D-6E1D69252F6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA954D-5173-CB4E-BB57-EA32CC026191}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{D5F40304-4F7F-1F42-ADB1-A0DBF01C3432}"/>
   </bookViews>
